--- a/assets/book.xlsx
+++ b/assets/book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sherl\Desktop\Code\JavaScript\Discord\LuckyCard\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\JavaScript\Discord\LuckyCard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4559346-E2AC-4B6D-95E5-F0440AA09E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4459E2-9AF1-492E-A9E3-27140CA45973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11310" xr2:uid="{8CBEC2EF-D375-4146-8567-19B71A338C04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{8CBEC2EF-D375-4146-8567-19B71A338C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -501,9 +501,6 @@
     <t>Okusama ga Seitokaichou</t>
   </si>
   <si>
-    <t>Ui Wakana.png</t>
-  </si>
-  <si>
     <t>/Luka_Urushibara.png</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>Futari wa Precure</t>
+  </si>
+  <si>
+    <t>Ui Wakana</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6664DC04-77AE-4C1B-B21A-87DFF34DD649}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
         <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>152</v>
